--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF004_遅刻早退取消申請\二次\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AD71F-938B-4E9D-85B1-7A8BA9485913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED489F7C-8903-4CA7-A119-5D771BCF247E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
@@ -2696,7 +2696,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="63.75" customHeight="1">
+    <row r="13" spans="1:12" ht="90" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF004_遅刻早退取消申請\二次\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED489F7C-8903-4CA7-A119-5D771BCF247E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="遅刻早退取消申請" sheetId="28" r:id="rId1"/>
@@ -65,19 +64,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -98,7 +97,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -464,11 +463,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 10" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="4"/>
+    <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準 3 2 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,7 +508,7 @@
         <xdr:cNvPr id="37" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,8 +516,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3162300" y="219075"/>
-          <a:ext cx="612916" cy="522000"/>
+          <a:off x="2819400" y="219075"/>
+          <a:ext cx="555766" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -528,7 +527,7 @@
           <xdr:cNvPr id="38" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -582,7 +581,7 @@
           <xdr:cNvPr id="39" name="直線コネクタ 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -622,7 +621,7 @@
           <xdr:cNvPr id="40" name="直線コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -662,7 +661,7 @@
           <xdr:cNvPr id="41" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -700,13 +699,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -715,7 +717,7 @@
           <xdr:cNvPr id="42" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -753,13 +755,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -768,7 +773,7 @@
           <xdr:cNvPr id="43" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -806,13 +811,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -837,7 +845,7 @@
         <xdr:cNvPr id="44" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,8 +853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3778822" y="219075"/>
-          <a:ext cx="612916" cy="522000"/>
+          <a:off x="3369247" y="219075"/>
+          <a:ext cx="555766" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -856,7 +864,7 @@
           <xdr:cNvPr id="45" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -910,7 +918,7 @@
           <xdr:cNvPr id="46" name="直線コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -950,7 +958,7 @@
           <xdr:cNvPr id="47" name="直線コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -990,7 +998,7 @@
           <xdr:cNvPr id="48" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1028,13 +1036,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1043,7 +1054,7 @@
           <xdr:cNvPr id="49" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1081,13 +1092,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1096,7 +1110,7 @@
           <xdr:cNvPr id="50" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1134,13 +1148,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1165,7 +1182,7 @@
         <xdr:cNvPr id="51" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,8 +1190,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4403390" y="219075"/>
-          <a:ext cx="612916" cy="522000"/>
+          <a:off x="3927140" y="219075"/>
+          <a:ext cx="546241" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1184,7 +1201,7 @@
           <xdr:cNvPr id="52" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1238,7 +1255,7 @@
           <xdr:cNvPr id="53" name="直線コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1278,7 +1295,7 @@
           <xdr:cNvPr id="54" name="直線コネクタ 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1318,7 +1335,7 @@
           <xdr:cNvPr id="55" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1356,13 +1373,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1371,7 +1391,7 @@
           <xdr:cNvPr id="56" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,13 +1429,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1424,7 +1447,7 @@
           <xdr:cNvPr id="57" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1462,13 +1485,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1493,7 +1519,7 @@
         <xdr:cNvPr id="58" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,8 +1527,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5017073" y="219075"/>
-          <a:ext cx="612916" cy="522000"/>
+          <a:off x="4474148" y="219075"/>
+          <a:ext cx="555766" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1512,7 +1538,7 @@
           <xdr:cNvPr id="59" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1566,7 +1592,7 @@
           <xdr:cNvPr id="60" name="直線コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1606,7 +1632,7 @@
           <xdr:cNvPr id="61" name="直線コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1646,7 +1672,7 @@
           <xdr:cNvPr id="62" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1684,13 +1710,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1699,7 +1728,7 @@
           <xdr:cNvPr id="63" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1737,13 +1766,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1752,7 +1784,7 @@
           <xdr:cNvPr id="64" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1790,13 +1822,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1821,7 +1856,7 @@
         <xdr:cNvPr id="100" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,8 +1864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5641641" y="209550"/>
-          <a:ext cx="612916" cy="522000"/>
+          <a:off x="5032041" y="209550"/>
+          <a:ext cx="546241" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1840,7 +1875,7 @@
           <xdr:cNvPr id="101" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1894,7 +1929,7 @@
           <xdr:cNvPr id="102" name="直線コネクタ 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1934,7 +1969,7 @@
           <xdr:cNvPr id="103" name="直線コネクタ 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1974,7 +2009,7 @@
           <xdr:cNvPr id="104" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2012,13 +2047,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2027,7 +2065,7 @@
           <xdr:cNvPr id="105" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2065,13 +2103,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2080,7 +2121,7 @@
           <xdr:cNvPr id="106" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2118,13 +2159,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2519,23 +2563,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184022B-8B52-4EAD-B846-0F9397241960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
-    <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="0.77734375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="7.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.75" style="2" customWidth="1"/>
+    <col min="2" max="11" width="7.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.75" style="2" customWidth="1"/>
+    <col min="13" max="14" width="7.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="1.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="2.44140625" style="2"/>
+    <col min="18" max="16384" width="2.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF004_遅刻早退取消申請\二次\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E8176-664C-42D7-8163-5BC4A3E3B748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="遅刻早退取消申請" sheetId="28" r:id="rId1"/>
@@ -54,7 +55,7 @@
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,19 +65,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -97,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -463,11 +464,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2 2" xfId="5"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,7 +509,7 @@
         <xdr:cNvPr id="37" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -516,8 +517,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2819400" y="219075"/>
-          <a:ext cx="555766" cy="522000"/>
+          <a:off x="3162300" y="219075"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -527,7 +528,7 @@
           <xdr:cNvPr id="38" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -581,7 +582,7 @@
           <xdr:cNvPr id="39" name="直線コネクタ 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -621,7 +622,7 @@
           <xdr:cNvPr id="40" name="直線コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -661,7 +662,7 @@
           <xdr:cNvPr id="41" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -717,7 +718,7 @@
           <xdr:cNvPr id="42" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -773,7 +774,7 @@
           <xdr:cNvPr id="43" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -845,7 +846,7 @@
         <xdr:cNvPr id="44" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,8 +854,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3369247" y="219075"/>
-          <a:ext cx="555766" cy="522000"/>
+          <a:off x="3778822" y="219075"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -864,7 +865,7 @@
           <xdr:cNvPr id="45" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -918,7 +919,7 @@
           <xdr:cNvPr id="46" name="直線コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -958,7 +959,7 @@
           <xdr:cNvPr id="47" name="直線コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -998,7 +999,7 @@
           <xdr:cNvPr id="48" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1054,7 +1055,7 @@
           <xdr:cNvPr id="49" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1110,7 +1111,7 @@
           <xdr:cNvPr id="50" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1182,7 +1183,7 @@
         <xdr:cNvPr id="51" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,8 +1191,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3927140" y="219075"/>
-          <a:ext cx="546241" cy="522000"/>
+          <a:off x="4403390" y="219075"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1201,7 +1202,7 @@
           <xdr:cNvPr id="52" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1255,7 +1256,7 @@
           <xdr:cNvPr id="53" name="直線コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1295,7 +1296,7 @@
           <xdr:cNvPr id="54" name="直線コネクタ 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1335,7 +1336,7 @@
           <xdr:cNvPr id="55" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1391,7 +1392,7 @@
           <xdr:cNvPr id="56" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1447,7 +1448,7 @@
           <xdr:cNvPr id="57" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1519,7 +1520,7 @@
         <xdr:cNvPr id="58" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,8 +1528,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4474148" y="219075"/>
-          <a:ext cx="555766" cy="522000"/>
+          <a:off x="5017073" y="219075"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1538,7 +1539,7 @@
           <xdr:cNvPr id="59" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1592,7 +1593,7 @@
           <xdr:cNvPr id="60" name="直線コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1632,7 +1633,7 @@
           <xdr:cNvPr id="61" name="直線コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1672,7 +1673,7 @@
           <xdr:cNvPr id="62" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1728,7 +1729,7 @@
           <xdr:cNvPr id="63" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1784,7 +1785,7 @@
           <xdr:cNvPr id="64" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1856,7 +1857,7 @@
         <xdr:cNvPr id="100" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,8 +1865,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5032041" y="209550"/>
-          <a:ext cx="546241" cy="522000"/>
+          <a:off x="5641641" y="209550"/>
+          <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
         </a:xfrm>
@@ -1875,7 +1876,7 @@
           <xdr:cNvPr id="101" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1929,7 +1930,7 @@
           <xdr:cNvPr id="102" name="直線コネクタ 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1969,7 +1970,7 @@
           <xdr:cNvPr id="103" name="直線コネクタ 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2009,7 +2010,7 @@
           <xdr:cNvPr id="104" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2065,7 +2066,7 @@
           <xdr:cNvPr id="105" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2121,7 +2122,7 @@
           <xdr:cNvPr id="106" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2563,23 +2564,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="0.75" style="2" customWidth="1"/>
-    <col min="2" max="11" width="7.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="0.75" style="2" customWidth="1"/>
-    <col min="13" max="14" width="7.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="1.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
+    <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.77734375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="2.5" style="2"/>
+    <col min="18" max="16384" width="2.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -2740,7 +2741,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="90" customHeight="1">
+    <row r="13" spans="1:12" ht="93.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF004_遅刻早退取消申請\二次\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93E8176-664C-42D7-8163-5BC4A3E3B748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="遅刻早退取消申請" sheetId="28" r:id="rId1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -463,12 +462,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="4"/>
+    <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準 3 2 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,7 +508,7 @@
         <xdr:cNvPr id="37" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -528,7 +527,7 @@
           <xdr:cNvPr id="38" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -582,7 +581,7 @@
           <xdr:cNvPr id="39" name="直線コネクタ 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -622,7 +621,7 @@
           <xdr:cNvPr id="40" name="直線コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -662,7 +661,7 @@
           <xdr:cNvPr id="41" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -700,16 +699,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -718,7 +714,7 @@
           <xdr:cNvPr id="42" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -756,16 +752,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -774,7 +767,7 @@
           <xdr:cNvPr id="43" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -812,16 +805,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -846,7 +836,7 @@
         <xdr:cNvPr id="44" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -865,7 +855,7 @@
           <xdr:cNvPr id="45" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -919,7 +909,7 @@
           <xdr:cNvPr id="46" name="直線コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -959,7 +949,7 @@
           <xdr:cNvPr id="47" name="直線コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -999,7 +989,7 @@
           <xdr:cNvPr id="48" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1037,16 +1027,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1055,7 +1042,7 @@
           <xdr:cNvPr id="49" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1093,16 +1080,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1111,7 +1095,7 @@
           <xdr:cNvPr id="50" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1149,16 +1133,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1183,7 +1164,7 @@
         <xdr:cNvPr id="51" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1183,7 @@
           <xdr:cNvPr id="52" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1256,7 +1237,7 @@
           <xdr:cNvPr id="53" name="直線コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1296,7 +1277,7 @@
           <xdr:cNvPr id="54" name="直線コネクタ 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1336,7 +1317,7 @@
           <xdr:cNvPr id="55" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,16 +1355,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1392,7 +1370,7 @@
           <xdr:cNvPr id="56" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1430,16 +1408,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1448,7 +1423,7 @@
           <xdr:cNvPr id="57" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1486,16 +1461,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1520,7 +1492,7 @@
         <xdr:cNvPr id="58" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1511,7 @@
           <xdr:cNvPr id="59" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1593,7 +1565,7 @@
           <xdr:cNvPr id="60" name="直線コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1633,7 +1605,7 @@
           <xdr:cNvPr id="61" name="直線コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1673,7 +1645,7 @@
           <xdr:cNvPr id="62" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1711,16 +1683,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1729,7 +1698,7 @@
           <xdr:cNvPr id="63" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1767,16 +1736,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1785,7 +1751,7 @@
           <xdr:cNvPr id="64" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1823,16 +1789,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1857,7 +1820,7 @@
         <xdr:cNvPr id="100" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1839,7 @@
           <xdr:cNvPr id="101" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1930,7 +1893,7 @@
           <xdr:cNvPr id="102" name="直線コネクタ 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1970,7 +1933,7 @@
           <xdr:cNvPr id="103" name="直線コネクタ 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2010,7 +1973,7 @@
           <xdr:cNvPr id="104" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2048,16 +2011,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2066,7 +2026,7 @@
           <xdr:cNvPr id="105" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2104,16 +2064,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2122,7 +2079,7 @@
           <xdr:cNvPr id="106" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2160,16 +2117,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2564,12 +2518,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
   <cols>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF004_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF004_遅刻早退取消申請\Ver4～\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CA822-E278-4EB9-8118-136DA8615D51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3660" yWindow="1620" windowWidth="20100" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="遅刻早退取消申請" sheetId="28" r:id="rId1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -104,7 +105,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="源ノ角ゴシック JP Normal"/>
+      <name val="源ノ角ゴシック Normal"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -337,6 +338,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +356,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -358,6 +371,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -382,6 +401,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -406,6 +440,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -418,56 +461,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2 2" xfId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,7 +509,7 @@
         <xdr:cNvPr id="37" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DBACEB5-F543-4483-842E-218F65C495BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,7 +528,7 @@
           <xdr:cNvPr id="38" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774AC1B6-ADD8-4537-9467-B9D5C7CBB31E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -570,8 +571,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -581,7 +582,7 @@
           <xdr:cNvPr id="39" name="直線コネクタ 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCE4C64-5D22-4E99-9999-DC016EC1DAAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -621,7 +622,7 @@
           <xdr:cNvPr id="40" name="直線コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5EF830-9B46-4BE6-B3CC-5E087FD0393F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -661,7 +662,7 @@
           <xdr:cNvPr id="41" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D925DC19-6E9D-4E61-94BF-8026FC57B81D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -699,13 +700,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -714,7 +718,7 @@
           <xdr:cNvPr id="42" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FB1446-3012-4C45-8207-003A54F5D9D6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -752,13 +756,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -767,7 +774,7 @@
           <xdr:cNvPr id="43" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292CBEB5-8103-4FEC-81B6-EDBAD97B8B66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -805,13 +812,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -836,7 +846,7 @@
         <xdr:cNvPr id="44" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C65A4F-B305-4076-838D-37B248F8FA15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -855,7 +865,7 @@
           <xdr:cNvPr id="45" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B62E5DB-A8A4-462B-AC9F-183B2757ECA9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -898,8 +908,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -909,7 +919,7 @@
           <xdr:cNvPr id="46" name="直線コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A7AF8E-A32B-4391-9E95-4073FDA6D27C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -949,7 +959,7 @@
           <xdr:cNvPr id="47" name="直線コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E9B699-915B-4631-B1A8-1DB4C9883360}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -989,7 +999,7 @@
           <xdr:cNvPr id="48" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB721410-4459-41B8-A4BA-78F336ABFCFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1027,13 +1037,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1042,7 +1055,7 @@
           <xdr:cNvPr id="49" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DF1DC0-FCAA-409E-B9C9-2DCECF7D2C5C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1080,13 +1093,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1095,7 +1111,7 @@
           <xdr:cNvPr id="50" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBD13E7-E109-4677-936B-83095C02C88F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1133,13 +1149,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1164,7 +1183,7 @@
         <xdr:cNvPr id="51" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0450668D-643F-4C77-BE73-2EB18DB79E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1202,7 @@
           <xdr:cNvPr id="52" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20918DB7-DE6C-4E24-BEA2-143C48CE21DA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1226,8 +1245,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1237,7 +1256,7 @@
           <xdr:cNvPr id="53" name="直線コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78927FE4-DCCB-4F95-B479-8F37D0E4353A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1277,7 +1296,7 @@
           <xdr:cNvPr id="54" name="直線コネクタ 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EBDE94-DF1F-4D9D-8D65-0BA56CA98205}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1317,7 +1336,7 @@
           <xdr:cNvPr id="55" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2051D8-511D-45A8-B41E-3ABE12005E52}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1355,13 +1374,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1370,7 +1392,7 @@
           <xdr:cNvPr id="56" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4010B74C-D45C-404A-963A-E9D94FBAC3BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1408,13 +1430,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1423,7 +1448,7 @@
           <xdr:cNvPr id="57" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDF2ECF-3EA1-4B4D-BE90-5347D121D0B4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1461,13 +1486,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1492,7 +1520,7 @@
         <xdr:cNvPr id="58" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D938DB9D-796C-44BD-8298-854AB4E99665}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1539,7 @@
           <xdr:cNvPr id="59" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0495346F-3259-4EE7-B4D6-EECD3E45B2D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1554,8 +1582,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1565,7 +1593,7 @@
           <xdr:cNvPr id="60" name="直線コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D24898-9F35-4857-B350-A976F1B928CC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1605,7 +1633,7 @@
           <xdr:cNvPr id="61" name="直線コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEC29BA-57A7-46B1-9E57-CB77619C1702}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1645,7 +1673,7 @@
           <xdr:cNvPr id="62" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF3A87-A9DD-4C17-A315-9C83B113CB42}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1683,13 +1711,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1698,7 +1729,7 @@
           <xdr:cNvPr id="63" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C72017-1283-4EF6-80D6-42CE5B59BAE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1736,13 +1767,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1751,7 +1785,7 @@
           <xdr:cNvPr id="64" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB45CB4-4AE2-453F-B1C4-DC3D53DE8F5A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1789,13 +1823,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1820,7 +1857,7 @@
         <xdr:cNvPr id="100" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BD5971-45E3-4D00-9C4E-298598D8740E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1876,7 @@
           <xdr:cNvPr id="101" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC74AE4-B1AB-4237-8E40-255AABEC8DDE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1882,8 +1919,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1893,7 +1930,7 @@
           <xdr:cNvPr id="102" name="直線コネクタ 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8013F66-A50D-44EB-86E4-804992290583}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1933,7 +1970,7 @@
           <xdr:cNvPr id="103" name="直線コネクタ 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4884B004-0B89-4ACB-A6EC-7F0607F111D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1973,7 +2010,7 @@
           <xdr:cNvPr id="104" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB35953C-7198-4FC3-AEAD-4ED0148A0611}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2011,13 +2048,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2026,7 +2066,7 @@
           <xdr:cNvPr id="105" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC28F65-116F-4917-BCBB-386A3E23D9CF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2064,13 +2104,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2079,7 +2122,7 @@
           <xdr:cNvPr id="106" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BC4255-3B71-4F9F-A71D-99BA4043C01F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2117,13 +2160,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2518,12 +2564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
     <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
@@ -2556,404 +2602,404 @@
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="3.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="93.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="3.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="3.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="74.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="3.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="37" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B16:C16"/>
